--- a/output/google_maps_data_Toko_Oleh_oleh_Gunungkidul.xlsx
+++ b/output/google_maps_data_Toko_Oleh_oleh_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>0857-2735-4144</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.3</v>
+        <v>-7.967295</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.967295</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.616873</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh-oleh+Khas+Gunungkidul+MBAK+TIWIEK/@-7.9462353,110.5451782,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb4a0755934a3:0x152609c293612e0e!8m2!3d-7.9672948!4d110.6168734!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBXN0b3Jl4AEA!16s%2Fg%2F11bw46y2mh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh-oleh+Khas+Gunungkidul+MBAK+TIWIEK/@-7.9462353,110.5451782,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb4a0755934a3:0x152609c293612e0e!8m2!3d-7.9672948!4d110.6168734!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBXN0b3Jl4AEA!16s%2Fg%2F11bw46y2mh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -548,25 +542,24 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>-7.942925</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.942925</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.579394</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh+SARI+RASA/@-7.9429251,110.507296,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb336613031ef:0x76d3732b39e26011!8m2!3d-7.9429251!4d110.5793938!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBGRlbGngAQA!16s%2Fg%2F1pzptp80h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh+SARI+RASA/@-7.9429251,110.507296,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb336613031ef:0x76d3732b39e26011!8m2!3d-7.9429251!4d110.5793938!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBGRlbGngAQA!16s%2Fg%2F1pzptp80h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -593,25 +586,24 @@
           <t>0878-3334-3339</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.3</v>
+        <v>-7.979502</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.979502</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.598056</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh+SARI+RASA+2/@-7.9429251,110.507296,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb38f2b4dbfc3:0xf1c6a8811b35255b!8m2!3d-7.9795019!4d110.5980556!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBGRlbGngAQA!16s%2Fg%2F11tmk2jmhg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh+SARI+RASA+2/@-7.9429251,110.507296,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb38f2b4dbfc3:0xf1c6a8811b35255b!8m2!3d-7.9795019!4d110.5980556!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBGRlbGngAQA!16s%2Fg%2F11tmk2jmhg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -634,25 +626,24 @@
           <t>0878-3987-0070</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>-7.926332</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.926332</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.564457</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh+-+Oleh+Pak+Kirun/@-7.9429251,110.507296,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7a4d1eb9345d19:0xe1e8980c7df1458a!8m2!3d-7.9263325!4d110.5644565!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBGRlbGngAQA!16s%2Fg%2F11c2l1pcv_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh+-+Oleh+Pak+Kirun/@-7.9429251,110.507296,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7a4d1eb9345d19:0xe1e8980c7df1458a!8m2!3d-7.9263325!4d110.5644565!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBGRlbGngAQA!16s%2Fg%2F11c2l1pcv_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -679,25 +670,24 @@
           <t>0812-1557-9777</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>-7.963801</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.963801</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.609138</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gathot+Thiwul+Yu+Tum/@-7.9429251,110.507296,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb35b8c70cb47:0x76930c23670446a1!8m2!3d-7.9638009!4d110.6091377!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBGRlbGngAQA!16s%2Fg%2F11rvtn3gw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gathot+Thiwul+Yu+Tum/@-7.9429251,110.507296,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb35b8c70cb47:0x76930c23670446a1!8m2!3d-7.9638009!4d110.6091377!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBGRlbGngAQA!16s%2Fg%2F11rvtn3gw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -716,25 +706,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>-7.97445</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.97445</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.615792</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Oleh+Oleh+Gunungkidul/@-7.9744502,110.543694,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb3238a8f4623:0x83e7cee42645a1ec!8m2!3d-7.9744502!4d110.6157918!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bJIBCWdpZnRfc2hvcOABAA!16s%2Fg%2F11tp29ck__?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Oleh+Oleh+Gunungkidul/@-7.9744502,110.543694,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb3238a8f4623:0x83e7cee42645a1ec!8m2!3d-7.9744502!4d110.6157918!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bJIBCWdpZnRfc2hvcOABAA!16s%2Fg%2F11tp29ck__?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -757,25 +746,24 @@
           <t>0851-0500-1164</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>-7.915947</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.915947</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.556234</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yu+Tum+Pusat+Oleh+Oleh/@-7.9159469,110.4841365,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7a4d3661442b9d:0x999be29bba53db7c!8m2!3d-7.9159469!4d110.5562343!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBDWdyb2Nlcnlfc3RvcmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkNMVWxFWlZaM0VBReABAPoBBAgAEEg!16s%2Fg%2F11f89x2486?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yu+Tum+Pusat+Oleh+Oleh/@-7.9159469,110.4841365,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7a4d3661442b9d:0x999be29bba53db7c!8m2!3d-7.9159469!4d110.5562343!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBDWdyb2Nlcnlfc3RvcmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkNMVWxFWlZaM0VBReABAPoBBAgAEEg!16s%2Fg%2F11f89x2486?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -794,25 +782,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>-7.964988</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.964988</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.617672</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh-oleh+Gunungkidul+Walang+Goreng+Gareng/@-7.9649885,110.5455746,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb4a09098ba15:0x5a4121bbfffd3b2!8m2!3d-7.9649885!4d110.6176724!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBDnNvdXZlbmlyX3N0b3Jl4AEA!16s%2Fg%2F11b809qzqg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh-oleh+Gunungkidul+Walang+Goreng+Gareng/@-7.9649885,110.5455746,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb4a09098ba15:0x5a4121bbfffd3b2!8m2!3d-7.9649885!4d110.6176724!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBDnNvdXZlbmlyX3N0b3Jl4AEA!16s%2Fg%2F11b809qzqg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -835,25 +822,24 @@
           <t>(0274) 392910</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>-7.964212</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.964212</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.605365</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakpia+Pathok+101/@-7.9649885,110.5455746,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb35b5a6ffb81:0xf1f97641b960e596!8m2!3d-7.9642122!4d110.6053647!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOVVgxQm1PRFZuUlJBQuABAPoBBAgAEEE!16s%2Fg%2F11f0kxx88d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakpia+Pathok+101/@-7.9649885,110.5455746,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb35b5a6ffb81:0xf1f97641b960e596!8m2!3d-7.9642122!4d110.6053647!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOVVgxQm1PRFZuUlJBQuABAPoBBAgAEEE!16s%2Fg%2F11f0kxx88d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -876,25 +862,24 @@
           <t>0813-3260-4081</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>-7.966164</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.966164</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.617002</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh+Walang+Goreng+Pak+Gareng/@-7.9649885,110.5455746,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb4a07fa55905:0xd7fdbca98bb29f8f!8m2!3d-7.9661642!4d110.6170024!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBGRlbGngAQA!16s%2Fg%2F11c706xtj_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh+Walang+Goreng+Pak+Gareng/@-7.9649885,110.5455746,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb4a07fa55905:0xd7fdbca98bb29f8f!8m2!3d-7.9661642!4d110.6170024!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBGRlbGngAQA!16s%2Fg%2F11c706xtj_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -921,25 +906,24 @@
           <t>0821-3763-2307</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>-7.912973</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.912973</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.55487</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Javenir+Pusat+Oleh+-+Oleh+Gunung+Kidul/@-7.9129728,110.4827718,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7a4d9fab4d205f:0xdd4460dccdde6737!8m2!3d-7.9129728!4d110.5548696!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNGJEWjFURzFSUlJBQuABAPoBBAgAEDo!16s%2Fg%2F11sc74ztlp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Javenir+Pusat+Oleh+-+Oleh+Gunung+Kidul/@-7.9129728,110.4827718,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7a4d9fab4d205f:0xdd4460dccdde6737!8m2!3d-7.9129728!4d110.5548696!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNGJEWjFURzFSUlJBQuABAPoBBAgAEDo!16s%2Fg%2F11sc74ztlp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -962,25 +946,24 @@
           <t>0877-3979-2378</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>-7.966838</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.966838</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.610744</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PEYEK+BU+TATIK/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb35dd6f7dca5:0x9d03cbbe2148e148!8m2!3d-7.9668379!4d110.6107438!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBC3Bhc3RyeV9zaG9w4AEA!16s%2Fg%2F11dxl811t7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PEYEK+BU+TATIK/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb35dd6f7dca5:0x9d03cbbe2148e148!8m2!3d-7.9668379!4d110.6107438!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBC3Bhc3RyeV9zaG9w4AEA!16s%2Fg%2F11dxl811t7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1003,25 +986,24 @@
           <t>0877-3897-8676</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>-7.969265</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.969265</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.60172</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/HAN+BAKERY,Toko+Roti+Dan+Kue+Wonosari+Gunungkidul/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb3427efe389f:0x61de2f820200bcf3!8m2!3d-7.9692648!4d110.6017195!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBmJha2VyeeABAA!16s%2Fg%2F11g6xpft8t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/HAN+BAKERY,Toko+Roti+Dan+Kue+Wonosari+Gunungkidul/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb3427efe389f:0x61de2f820200bcf3!8m2!3d-7.9692648!4d110.6017195!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBmJha2VyeeABAA!16s%2Fg%2F11g6xpft8t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1040,25 +1022,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>-7.976498</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.976498</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.611808</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sweetes+Shop+Wonosari/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb3c7148520cd:0x3b6d4e1ee285b164!8m2!3d-7.9764976!4d110.6118084!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBDmNsb3RoaW5nX3N0b3Jl4AEA!16s%2Fg%2F11kh8jfglb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sweetes+Shop+Wonosari/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb3c7148520cd:0x3b6d4e1ee285b164!8m2!3d-7.9764976!4d110.6118084!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBDmNsb3RoaW5nX3N0b3Jl4AEA!16s%2Fg%2F11kh8jfglb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1077,25 +1058,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F16" t="n">
-        <v>3.7</v>
+        <v>-7.96876</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.96876</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.603487</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/NICESO+WONOSARI+GUNUNGKIDUL/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb3a54c76823b:0xe46593680bc887f7!8m2!3d-7.9687601!4d110.603487!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBEWNvbnZlbmllbmNlX3N0b3JlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU53WjNWdGJHWm5FQUXgAQD6AQQIABA2!16s%2Fg%2F11v3j3s0kn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/NICESO+WONOSARI+GUNUNGKIDUL/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb3a54c76823b:0xe46593680bc887f7!8m2!3d-7.9687601!4d110.603487!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBEWNvbnZlbmllbmNlX3N0b3JlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU53WjNWdGJHWm5FQUXgAQD6AQQIABA2!16s%2Fg%2F11v3j3s0kn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1122,25 +1102,24 @@
           <t>0812-2854-3940</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.9</v>
+        <v>-7.970281</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.970281</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.617887</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Khas+Pizza+Wonosari/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb5696e7c9ff7:0xa2422c7086841f7d!8m2!3d-7.970281!4d110.6178867!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBmJha2VyeeABAA!16s%2Fg%2F11llcw1y2h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Khas+Pizza+Wonosari/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb5696e7c9ff7:0xa2422c7086841f7d!8m2!3d-7.970281!4d110.6178867!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBmJha2VyeeABAA!16s%2Fg%2F11llcw1y2h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1163,25 +1142,24 @@
           <t>0811-3001-546</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.3</v>
+        <v>-7.968152</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.968152</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.597701</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lala+Shop+Wonosari/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb362202c48d3:0x427b11a0f99b81f9!8m2!3d-7.9681522!4d110.5977006!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBC3N1cGVybWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5vTVhKcWRHcFJSUkFC4AEA-gEECBcQSQ!16s%2Fg%2F11jt1hrg5d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lala+Shop+Wonosari/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb362202c48d3:0x427b11a0f99b81f9!8m2!3d-7.9681522!4d110.5977006!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBC3N1cGVybWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5vTVhKcWRHcFJSUkFC4AEA-gEECBcQSQ!16s%2Fg%2F11jt1hrg5d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1204,25 +1182,24 @@
           <t>(0274) 2901263</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>-7.976891</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.976891</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.611863</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TOKO+ANDARU+BALEHARJO/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb36376e5a1d9:0xb0beb0b82170d276!8m2!3d-7.9768906!4d110.6118634!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeGFuUlRkR3RSUlJBQuABAPoBBAgAECs!16s%2Fg%2F11f40grsw2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TOKO+ANDARU+BALEHARJO/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb36376e5a1d9:0xb0beb0b82170d276!8m2!3d-7.9768906!4d110.6118634!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBD3Nob3BwaW5nX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeGFuUlRkR3RSUlJBQuABAPoBBAgAECs!16s%2Fg%2F11f40grsw2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1245,25 +1222,24 @@
           <t>0812-2790-0045</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>-7.967307</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.967307</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.603376</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mocca+Toko+Roti+Dan+Kue+Gunungkidul/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb342e82ad0b3:0x198530fc515b9bc5!8m2!3d-7.9673072!4d110.6033761!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBmJha2VyeeABAA!16s%2Fg%2F1pzv74bhg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mocca+Toko+Roti+Dan+Kue+Gunungkidul/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb342e82ad0b3:0x198530fc515b9bc5!8m2!3d-7.9673072!4d110.6033761!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBmJha2VyeeABAA!16s%2Fg%2F1pzv74bhg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1286,25 +1262,24 @@
           <t>0821-3861-4773</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>-7.965005</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.965005</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.606354</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Niela+Sary+Snack,+Roti+dan+Catering/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb35c95f44611:0xa512a4a4fcc948d3!8m2!3d-7.9650051!4d110.6063544!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBmJha2VyeeABAA!16s%2Fg%2F12hktl84w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Niela+Sary+Snack,+Roti+dan+Catering/@-7.9668379,110.538646,13z/data=!4m10!1m2!2m1!1sToko+Oleh+oleh+Gunungkidul!3m6!1s0x2e7bb35c95f44611:0xa512a4a4fcc948d3!8m2!3d-7.9650051!4d110.6063544!15sChpUb2tvIE9sZWggb2xlaCBHdW51bmdraWR1bFocIhp0b2tvIG9sZWggb2xlaCBndW51bmdraWR1bJIBBmJha2VyeeABAA!16s%2Fg%2F12hktl84w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
